--- a/dist/document/dest/2020/10/doctors/89.xlsx
+++ b/dist/document/dest/2020/10/doctors/89.xlsx
@@ -404,9 +404,6 @@
       <c r="B2" s="1">
         <v>14</v>
       </c>
-      <c r="C2" s="1">
-        <v>10850</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -415,9 +412,6 @@
       <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="1">
-        <v>227200</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -426,9 +420,6 @@
       <c r="B4" s="1">
         <v>330</v>
       </c>
-      <c r="C4" s="1">
-        <v>1518000</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -437,9 +428,6 @@
       <c r="B5" s="1">
         <v>330</v>
       </c>
-      <c r="C5" s="1">
-        <v>2468400</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -448,9 +436,6 @@
       <c r="B6" s="1">
         <v>270</v>
       </c>
-      <c r="C6" s="1">
-        <v>931500</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -459,9 +444,6 @@
       <c r="B7" s="1">
         <v>10</v>
       </c>
-      <c r="C7" s="1">
-        <v>31050</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -470,9 +452,6 @@
       <c r="B8" s="1">
         <v>7</v>
       </c>
-      <c r="C8" s="1">
-        <v>18515</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -481,9 +460,6 @@
       <c r="B9" s="1">
         <v>7</v>
       </c>
-      <c r="C9" s="1">
-        <v>233100</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -492,9 +468,6 @@
       <c r="B10" s="1">
         <v>60</v>
       </c>
-      <c r="C10" s="1">
-        <v>127200</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -503,9 +476,6 @@
       <c r="B11" s="1">
         <v>26</v>
       </c>
-      <c r="C11" s="1">
-        <v>2368600</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -514,9 +484,6 @@
       <c r="B12" s="1">
         <v>1</v>
       </c>
-      <c r="C12" s="1">
-        <v>82000</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -525,9 +492,6 @@
       <c r="B13" s="1">
         <v>600</v>
       </c>
-      <c r="C13" s="1">
-        <v>2484000</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -536,9 +500,6 @@
       <c r="B14" s="1">
         <v>2</v>
       </c>
-      <c r="C14" s="1">
-        <v>104000</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -548,7 +509,7 @@
         <v>1659</v>
       </c>
       <c r="C15" s="1">
-        <v>10604415</v>
+        <v>NaN</v>
       </c>
     </row>
   </sheetData>

--- a/dist/document/dest/2020/10/doctors/89.xlsx
+++ b/dist/document/dest/2020/10/doctors/89.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -399,122 +399,216 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v xml:space="preserve">Acetazolamid </v>
+        <v>Alcomet (Metadoxine 500mg)</v>
       </c>
       <c r="B2" s="1">
-        <v>14</v>
+        <v>60</v>
+      </c>
+      <c r="C2" s="1">
+        <v>495000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Alphagan P 0.15% 5ml (Brimonidine tartrate ophthalmic solution)</v>
+        <v>BS One (Omega3 Fish Oil 1000mg)</v>
       </c>
       <c r="B3" s="1">
-        <v>2</v>
+        <v>210</v>
+      </c>
+      <c r="C3" s="1">
+        <v>966000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>BS One (Omega3 Fish Oil 1000mg)</v>
+        <v>Bilomag (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B4" s="1">
-        <v>330</v>
+        <v>960</v>
+      </c>
+      <c r="C4" s="1">
+        <v>7180800</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Bilomag (Ginkgo biloba 80mg)</v>
+        <v>Celivite (Multivitamin &amp; Minerals)</v>
       </c>
       <c r="B5" s="1">
-        <v>330</v>
+        <v>390</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1345500</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Celivite (Multivitamin &amp; Minerals)</v>
+        <v>E-Cox (Etoricoxib 60mg)</v>
       </c>
       <c r="B6" s="1">
-        <v>270</v>
+        <v>10</v>
+      </c>
+      <c r="C6" s="1">
+        <v>66000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Destor (Desloratadine 5mg)</v>
+        <v>Karyuni Collyre (Pirenoxine 0.005%)</v>
       </c>
       <c r="B7" s="1">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="C7" s="1">
+        <v>666000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Kaleorid (Potassium 600mg)</v>
+        <v>Liveritat (L-Ornithine L-Aspartate 500mg)</v>
       </c>
       <c r="B8" s="1">
-        <v>7</v>
+        <v>60</v>
+      </c>
+      <c r="C8" s="1">
+        <v>345000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Karyuni Collyre (Pirenoxine 0.005%)</v>
+        <v>Locinvid (Levofloxacin 500mg)</v>
       </c>
       <c r="B9" s="1">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="C9" s="1">
+        <v>187000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v xml:space="preserve">Mg B6 </v>
+        <v>Medrol 16mg (Methylprednisolone)</v>
       </c>
       <c r="B10" s="1">
-        <v>60</v>
+        <v>38</v>
+      </c>
+      <c r="C10" s="1">
+        <v>171380</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Optive 15ml (Glycerin 0.9%,Carboxymethylcellulose 0.5%)</v>
+        <v>Natri Clorid 0.9% 10ml</v>
       </c>
       <c r="B11" s="1">
-        <v>26</v>
+        <v>15</v>
+      </c>
+      <c r="C11" s="1">
+        <v>46500</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Relestat (Epinastine 0.05%)</v>
+        <v>Optive 15ml (Glycerin 0.9%,Carboxymethylcellulose 0.5%)</v>
       </c>
       <c r="B12" s="1">
-        <v>1</v>
+        <v>38</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3461800</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Timiroitin</v>
+        <v xml:space="preserve">Prednisone </v>
       </c>
       <c r="B13" s="1">
-        <v>600</v>
+        <v>20</v>
+      </c>
+      <c r="C13" s="1">
+        <v>9100</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Tobradex Collyre (Tobramycin, dexamethasone)</v>
+        <v>Rabesime (Rabeprazole 20mg)</v>
       </c>
       <c r="B14" s="1">
-        <v>2</v>
+        <v>30</v>
+      </c>
+      <c r="C14" s="1">
+        <v>263100</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
+        <v>Timiroitin</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1320</v>
+      </c>
+      <c r="C15" s="1">
+        <v>5464800</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Tobradex Collyre (Tobramycin, dexamethasone)</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1">
+        <v>104000</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Toropi (Lercanidipine 10mg)</v>
+      </c>
+      <c r="B17" s="1">
+        <v>30</v>
+      </c>
+      <c r="C17" s="1">
+        <v>257400</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>Trisova (Trimetazidine 20mg)</v>
+      </c>
+      <c r="B18" s="1">
+        <v>90</v>
+      </c>
+      <c r="C18" s="1">
+        <v>175950</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>Zuiver (Ursodeoxycholic acid 300mg)</v>
+      </c>
+      <c r="B19" s="1">
+        <v>60</v>
+      </c>
+      <c r="C19" s="1">
+        <v>699600</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
         <v>Tổng cộng</v>
       </c>
-      <c r="B15" s="1">
-        <v>1659</v>
-      </c>
-      <c r="C15" s="1">
-        <v>NaN</v>
+      <c r="B20" s="1">
+        <v>3363</v>
+      </c>
+      <c r="C20" s="1">
+        <v>21904930</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C15"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C20"/>
   </ignoredErrors>
 </worksheet>
 </file>